--- a/po_analysis_by_asin/B0CJBYCLKJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0CJBYCLKJ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,153 +452,241 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>234</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>126</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>126</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>162</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45362</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45369</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45376</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45383</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45390</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>216</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45404</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45418</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45425</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>48</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45432</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>192</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45453</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>60</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45460</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B20" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B31" t="n">
         <v>12</v>
       </c>
     </row>
@@ -613,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,49 +723,73 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>270</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>96</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>324</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>312</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B7" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>72</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CJBYCLKJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0CJBYCLKJ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -717,7 +718,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -791,6 +792,579 @@
       </c>
       <c r="B10" t="n">
         <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-44.02191452654233</v>
+      </c>
+      <c r="D2" t="n">
+        <v>109.8533085464296</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>36</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-43.49207903812316</v>
+      </c>
+      <c r="D3" t="n">
+        <v>113.1987009475161</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-41.62323773759552</v>
+      </c>
+      <c r="D4" t="n">
+        <v>113.0924053825289</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>39</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-38.32138073476487</v>
+      </c>
+      <c r="D5" t="n">
+        <v>122.5684055146223</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>41</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-46.01196895418298</v>
+      </c>
+      <c r="D6" t="n">
+        <v>120.7098980346166</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>42</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-35.16440707324321</v>
+      </c>
+      <c r="D7" t="n">
+        <v>119.3763589988502</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>44</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-32.87488955086462</v>
+      </c>
+      <c r="D8" t="n">
+        <v>119.2290992835188</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>46</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-27.75405349962437</v>
+      </c>
+      <c r="D9" t="n">
+        <v>123.4295696803812</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-29.51464388596382</v>
+      </c>
+      <c r="D10" t="n">
+        <v>124.3332381019845</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>49</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-31.59432355856576</v>
+      </c>
+      <c r="D11" t="n">
+        <v>126.5645834503015</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>50</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-27.7757045965584</v>
+      </c>
+      <c r="D12" t="n">
+        <v>133.3053607462177</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>55</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-23.53463627187392</v>
+      </c>
+      <c r="D13" t="n">
+        <v>128.7169956484204</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>57</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-23.83698998175128</v>
+      </c>
+      <c r="D14" t="n">
+        <v>129.2288099128286</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>62</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-18.59482204134401</v>
+      </c>
+      <c r="D15" t="n">
+        <v>142.8278676041376</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>63</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-11.92810926756419</v>
+      </c>
+      <c r="D16" t="n">
+        <v>144.707848878853</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>65</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-14.76787079828115</v>
+      </c>
+      <c r="D17" t="n">
+        <v>143.8404263219089</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>67</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-14.71620855644351</v>
+      </c>
+      <c r="D18" t="n">
+        <v>143.4564553337471</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>68</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-18.65709000801304</v>
+      </c>
+      <c r="D19" t="n">
+        <v>142.7439876222278</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>70</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-2.606350181348718</v>
+      </c>
+      <c r="D20" t="n">
+        <v>147.7256031565358</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>71</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-8.050195759012286</v>
+      </c>
+      <c r="D21" t="n">
+        <v>151.0978615357063</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>73</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-5.863650860818029</v>
+      </c>
+      <c r="D22" t="n">
+        <v>149.6744623994887</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>75</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.4204351707952637</v>
+      </c>
+      <c r="D23" t="n">
+        <v>154.4564946209299</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>76</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.564951989611826</v>
+      </c>
+      <c r="D24" t="n">
+        <v>152.9999541601076</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>78</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.22223922739349</v>
+      </c>
+      <c r="D25" t="n">
+        <v>156.5000817674527</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>81</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.105720819869746</v>
+      </c>
+      <c r="D26" t="n">
+        <v>160.5863324549938</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>84</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8.374430294725972</v>
+      </c>
+      <c r="D27" t="n">
+        <v>161.613086968642</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>86</v>
+      </c>
+      <c r="C28" t="n">
+        <v>12.25110697114849</v>
+      </c>
+      <c r="D28" t="n">
+        <v>165.2912189523842</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>88</v>
+      </c>
+      <c r="C29" t="n">
+        <v>11.43743943118676</v>
+      </c>
+      <c r="D29" t="n">
+        <v>171.3646149900763</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>93</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.139413429387522</v>
+      </c>
+      <c r="D30" t="n">
+        <v>166.7748794274612</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>94</v>
+      </c>
+      <c r="C31" t="n">
+        <v>16.8403475342181</v>
+      </c>
+      <c r="D31" t="n">
+        <v>170.0345370730795</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>96</v>
+      </c>
+      <c r="C32" t="n">
+        <v>17.06738905907024</v>
+      </c>
+      <c r="D32" t="n">
+        <v>173.3225149533166</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>97</v>
+      </c>
+      <c r="C33" t="n">
+        <v>21.29709866357589</v>
+      </c>
+      <c r="D33" t="n">
+        <v>174.5119777502521</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>99</v>
+      </c>
+      <c r="C34" t="n">
+        <v>22.74079084719952</v>
+      </c>
+      <c r="D34" t="n">
+        <v>180.1937651142229</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>101</v>
+      </c>
+      <c r="C35" t="n">
+        <v>14.44256717310279</v>
+      </c>
+      <c r="D35" t="n">
+        <v>173.7469780789223</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>102</v>
+      </c>
+      <c r="C36" t="n">
+        <v>24.54801457444553</v>
+      </c>
+      <c r="D36" t="n">
+        <v>177.6282163120631</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>104</v>
+      </c>
+      <c r="C37" t="n">
+        <v>29.51701251330278</v>
+      </c>
+      <c r="D37" t="n">
+        <v>184.7256240868652</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>106</v>
+      </c>
+      <c r="C38" t="n">
+        <v>28.96309793921921</v>
+      </c>
+      <c r="D38" t="n">
+        <v>184.4119623341998</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>107</v>
+      </c>
+      <c r="C39" t="n">
+        <v>24.15445465532171</v>
+      </c>
+      <c r="D39" t="n">
+        <v>180.0982064238989</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CJBYCLKJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0CJBYCLKJ_po_data.xlsx
@@ -805,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,16 +824,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -842,12 +832,6 @@
       <c r="B2" t="n">
         <v>34</v>
       </c>
-      <c r="C2" t="n">
-        <v>-44.02191452654233</v>
-      </c>
-      <c r="D2" t="n">
-        <v>109.8533085464296</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -856,12 +840,6 @@
       <c r="B3" t="n">
         <v>36</v>
       </c>
-      <c r="C3" t="n">
-        <v>-43.49207903812316</v>
-      </c>
-      <c r="D3" t="n">
-        <v>113.1987009475161</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -870,12 +848,6 @@
       <c r="B4" t="n">
         <v>37</v>
       </c>
-      <c r="C4" t="n">
-        <v>-41.62323773759552</v>
-      </c>
-      <c r="D4" t="n">
-        <v>113.0924053825289</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -884,12 +856,6 @@
       <c r="B5" t="n">
         <v>39</v>
       </c>
-      <c r="C5" t="n">
-        <v>-38.32138073476487</v>
-      </c>
-      <c r="D5" t="n">
-        <v>122.5684055146223</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -898,12 +864,6 @@
       <c r="B6" t="n">
         <v>41</v>
       </c>
-      <c r="C6" t="n">
-        <v>-46.01196895418298</v>
-      </c>
-      <c r="D6" t="n">
-        <v>120.7098980346166</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -912,12 +872,6 @@
       <c r="B7" t="n">
         <v>42</v>
       </c>
-      <c r="C7" t="n">
-        <v>-35.16440707324321</v>
-      </c>
-      <c r="D7" t="n">
-        <v>119.3763589988502</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -926,12 +880,6 @@
       <c r="B8" t="n">
         <v>44</v>
       </c>
-      <c r="C8" t="n">
-        <v>-32.87488955086462</v>
-      </c>
-      <c r="D8" t="n">
-        <v>119.2290992835188</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -940,12 +888,6 @@
       <c r="B9" t="n">
         <v>46</v>
       </c>
-      <c r="C9" t="n">
-        <v>-27.75405349962437</v>
-      </c>
-      <c r="D9" t="n">
-        <v>123.4295696803812</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -954,12 +896,6 @@
       <c r="B10" t="n">
         <v>47</v>
       </c>
-      <c r="C10" t="n">
-        <v>-29.51464388596382</v>
-      </c>
-      <c r="D10" t="n">
-        <v>124.3332381019845</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -968,12 +904,6 @@
       <c r="B11" t="n">
         <v>49</v>
       </c>
-      <c r="C11" t="n">
-        <v>-31.59432355856576</v>
-      </c>
-      <c r="D11" t="n">
-        <v>126.5645834503015</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -982,12 +912,6 @@
       <c r="B12" t="n">
         <v>50</v>
       </c>
-      <c r="C12" t="n">
-        <v>-27.7757045965584</v>
-      </c>
-      <c r="D12" t="n">
-        <v>133.3053607462177</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -996,12 +920,6 @@
       <c r="B13" t="n">
         <v>55</v>
       </c>
-      <c r="C13" t="n">
-        <v>-23.53463627187392</v>
-      </c>
-      <c r="D13" t="n">
-        <v>128.7169956484204</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1010,12 +928,6 @@
       <c r="B14" t="n">
         <v>57</v>
       </c>
-      <c r="C14" t="n">
-        <v>-23.83698998175128</v>
-      </c>
-      <c r="D14" t="n">
-        <v>129.2288099128286</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1024,12 +936,6 @@
       <c r="B15" t="n">
         <v>62</v>
       </c>
-      <c r="C15" t="n">
-        <v>-18.59482204134401</v>
-      </c>
-      <c r="D15" t="n">
-        <v>142.8278676041376</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1038,12 +944,6 @@
       <c r="B16" t="n">
         <v>63</v>
       </c>
-      <c r="C16" t="n">
-        <v>-11.92810926756419</v>
-      </c>
-      <c r="D16" t="n">
-        <v>144.707848878853</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1052,12 +952,6 @@
       <c r="B17" t="n">
         <v>65</v>
       </c>
-      <c r="C17" t="n">
-        <v>-14.76787079828115</v>
-      </c>
-      <c r="D17" t="n">
-        <v>143.8404263219089</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1066,12 +960,6 @@
       <c r="B18" t="n">
         <v>67</v>
       </c>
-      <c r="C18" t="n">
-        <v>-14.71620855644351</v>
-      </c>
-      <c r="D18" t="n">
-        <v>143.4564553337471</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1080,12 +968,6 @@
       <c r="B19" t="n">
         <v>68</v>
       </c>
-      <c r="C19" t="n">
-        <v>-18.65709000801304</v>
-      </c>
-      <c r="D19" t="n">
-        <v>142.7439876222278</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1094,12 +976,6 @@
       <c r="B20" t="n">
         <v>70</v>
       </c>
-      <c r="C20" t="n">
-        <v>-2.606350181348718</v>
-      </c>
-      <c r="D20" t="n">
-        <v>147.7256031565358</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1108,12 +984,6 @@
       <c r="B21" t="n">
         <v>71</v>
       </c>
-      <c r="C21" t="n">
-        <v>-8.050195759012286</v>
-      </c>
-      <c r="D21" t="n">
-        <v>151.0978615357063</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1122,12 +992,6 @@
       <c r="B22" t="n">
         <v>73</v>
       </c>
-      <c r="C22" t="n">
-        <v>-5.863650860818029</v>
-      </c>
-      <c r="D22" t="n">
-        <v>149.6744623994887</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1136,12 +1000,6 @@
       <c r="B23" t="n">
         <v>75</v>
       </c>
-      <c r="C23" t="n">
-        <v>-0.4204351707952637</v>
-      </c>
-      <c r="D23" t="n">
-        <v>154.4564946209299</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1150,12 +1008,6 @@
       <c r="B24" t="n">
         <v>76</v>
       </c>
-      <c r="C24" t="n">
-        <v>-2.564951989611826</v>
-      </c>
-      <c r="D24" t="n">
-        <v>152.9999541601076</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1164,12 +1016,6 @@
       <c r="B25" t="n">
         <v>78</v>
       </c>
-      <c r="C25" t="n">
-        <v>2.22223922739349</v>
-      </c>
-      <c r="D25" t="n">
-        <v>156.5000817674527</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1178,12 +1024,6 @@
       <c r="B26" t="n">
         <v>81</v>
       </c>
-      <c r="C26" t="n">
-        <v>7.105720819869746</v>
-      </c>
-      <c r="D26" t="n">
-        <v>160.5863324549938</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1192,12 +1032,6 @@
       <c r="B27" t="n">
         <v>84</v>
       </c>
-      <c r="C27" t="n">
-        <v>8.374430294725972</v>
-      </c>
-      <c r="D27" t="n">
-        <v>161.613086968642</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1206,12 +1040,6 @@
       <c r="B28" t="n">
         <v>86</v>
       </c>
-      <c r="C28" t="n">
-        <v>12.25110697114849</v>
-      </c>
-      <c r="D28" t="n">
-        <v>165.2912189523842</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1220,12 +1048,6 @@
       <c r="B29" t="n">
         <v>88</v>
       </c>
-      <c r="C29" t="n">
-        <v>11.43743943118676</v>
-      </c>
-      <c r="D29" t="n">
-        <v>171.3646149900763</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1234,12 +1056,6 @@
       <c r="B30" t="n">
         <v>93</v>
       </c>
-      <c r="C30" t="n">
-        <v>9.139413429387522</v>
-      </c>
-      <c r="D30" t="n">
-        <v>166.7748794274612</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1248,12 +1064,6 @@
       <c r="B31" t="n">
         <v>94</v>
       </c>
-      <c r="C31" t="n">
-        <v>16.8403475342181</v>
-      </c>
-      <c r="D31" t="n">
-        <v>170.0345370730795</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1262,12 +1072,6 @@
       <c r="B32" t="n">
         <v>96</v>
       </c>
-      <c r="C32" t="n">
-        <v>17.06738905907024</v>
-      </c>
-      <c r="D32" t="n">
-        <v>173.3225149533166</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1276,12 +1080,6 @@
       <c r="B33" t="n">
         <v>97</v>
       </c>
-      <c r="C33" t="n">
-        <v>21.29709866357589</v>
-      </c>
-      <c r="D33" t="n">
-        <v>174.5119777502521</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1290,12 +1088,6 @@
       <c r="B34" t="n">
         <v>99</v>
       </c>
-      <c r="C34" t="n">
-        <v>22.74079084719952</v>
-      </c>
-      <c r="D34" t="n">
-        <v>180.1937651142229</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1304,12 +1096,6 @@
       <c r="B35" t="n">
         <v>101</v>
       </c>
-      <c r="C35" t="n">
-        <v>14.44256717310279</v>
-      </c>
-      <c r="D35" t="n">
-        <v>173.7469780789223</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1318,12 +1104,6 @@
       <c r="B36" t="n">
         <v>102</v>
       </c>
-      <c r="C36" t="n">
-        <v>24.54801457444553</v>
-      </c>
-      <c r="D36" t="n">
-        <v>177.6282163120631</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1332,12 +1112,6 @@
       <c r="B37" t="n">
         <v>104</v>
       </c>
-      <c r="C37" t="n">
-        <v>29.51701251330278</v>
-      </c>
-      <c r="D37" t="n">
-        <v>184.7256240868652</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1346,12 +1120,6 @@
       <c r="B38" t="n">
         <v>106</v>
       </c>
-      <c r="C38" t="n">
-        <v>28.96309793921921</v>
-      </c>
-      <c r="D38" t="n">
-        <v>184.4119623341998</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1359,12 +1127,6 @@
       </c>
       <c r="B39" t="n">
         <v>107</v>
-      </c>
-      <c r="C39" t="n">
-        <v>24.15445465532171</v>
-      </c>
-      <c r="D39" t="n">
-        <v>180.0982064238989</v>
       </c>
     </row>
   </sheetData>
